--- a/Netzwerktechnik/Praktika/03_HTTP/Lösungen/Berechnungen.xlsx
+++ b/Netzwerktechnik/Praktika/03_HTTP/Lösungen/Berechnungen.xlsx
@@ -1,20 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabian/PycharmProjects/Computer-Networks/Netzwerktechnik/Praktika/02_Praktikum_HTTP_REST/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabian/PycharmProjects/Uebertragungstechnik/Netzwerktechnik/Praktika/03_HTTP/Lösungen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB370BF3-787E-0442-B4C4-384D634B9472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EF4A2C-06D6-634D-8DFB-7246CEE22AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="500" windowWidth="38400" windowHeight="23500" xr2:uid="{B03B1623-72E6-354A-B47D-361397BA380C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{B03B1623-72E6-354A-B47D-361397BA380C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">(Tabelle1!$A$13,Tabelle1!$D$13)</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">(Tabelle1!$A$14,Tabelle1!$D$14)</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">(Tabelle1!$A$23,Tabelle1!$D$23)</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">(Tabelle1!$A$24,Tabelle1!$D$24)</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">(Tabelle1!$A$25,Tabelle1!$D$25)</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">(Tabelle1!$A$26,Tabelle1!$D$26)</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">(Tabelle1!$A$27,Tabelle1!$D$27)</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">(Tabelle1!$A$28,Tabelle1!$D$28)</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">(Tabelle1!$A$29,Tabelle1!$D$29)</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">(Tabelle1!$A$30,Tabelle1!$D$30)</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">(Tabelle1!$A$31,Tabelle1!$D$31)</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">(Tabelle1!$A$32,Tabelle1!$D$32)</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">(Tabelle1!$A$15,Tabelle1!$D$15)</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">(Tabelle1!$A$33,Tabelle1!$D$33)</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">(Tabelle1!$A$34,Tabelle1!$D$34)</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">(Tabelle1!$A$35,Tabelle1!$D$35)</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">(Tabelle1!$A$36,Tabelle1!$D$36)</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">(Tabelle1!$A$37,Tabelle1!$D$37)</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">(Tabelle1!$A$38,Tabelle1!$D$38)</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">(Tabelle1!$A$39,Tabelle1!$D$39)</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">(Tabelle1!$A$16,Tabelle1!$D$16)</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">(Tabelle1!$A$17,Tabelle1!$D$17)</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">(Tabelle1!$A$18,Tabelle1!$D$18)</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">(Tabelle1!$A$19,Tabelle1!$D$19)</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">(Tabelle1!$A$20,Tabelle1!$D$20)</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">(Tabelle1!$A$21,Tabelle1!$D$21)</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">(Tabelle1!$A$22,Tabelle1!$D$22)</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>load</t>
   </si>
@@ -63,6 +92,21 @@
   </si>
   <si>
     <t>kbyte/ms</t>
+  </si>
+  <si>
+    <t>HTTP/1.1</t>
+  </si>
+  <si>
+    <t>HTTP/2</t>
+  </si>
+  <si>
+    <t>HTTP/3</t>
+  </si>
+  <si>
+    <t>HTTP Version</t>
+  </si>
+  <si>
+    <t>Ladegeschwindigkeit [kbyte/ms]</t>
   </si>
 </sst>
 </file>
@@ -124,6 +168,878 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$H$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ladegeschwindigkeit [kbyte/ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$G$13:$G$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>HTTP/1.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HTTP/2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HTTP/3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$H$13:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.8140639187918284</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.97247177463273</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.0495872695206</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-620C-DB4E-A3A9-0C0C4E774638}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="238285488"/>
+        <c:axId val="238287488"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="238285488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="238287488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="238287488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="238285488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC26FD56-DBAF-50BE-9494-742171A21D2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -423,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29127F20-026C-F84F-AA5D-856150B5E6FD}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,111 +1457,13 @@
       <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" t="s">
-        <v>6</v>
-      </c>
-      <c r="L10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>62.45</v>
-      </c>
-      <c r="C11">
-        <v>682</v>
-      </c>
-      <c r="D11">
-        <f>B11/C11</f>
-        <v>9.1568914956011729E-2</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="G11">
-        <v>28</v>
-      </c>
-      <c r="H11">
-        <f>F11/G11</f>
-        <v>7.8571428571428564E-4</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="J11">
-        <v>421</v>
-      </c>
-      <c r="K11">
-        <v>7</v>
-      </c>
-      <c r="L11">
-        <f>J11/K11</f>
-        <v>60.142857142857146</v>
-      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>0.39</v>
-      </c>
-      <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ref="D12:D33" si="0">B12/C12</f>
-        <v>4.8750000000000002E-2</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.88</v>
-      </c>
-      <c r="G12">
-        <v>19</v>
-      </c>
-      <c r="H12">
-        <f>F12/G12</f>
-        <v>4.6315789473684213E-2</v>
-      </c>
-      <c r="I12">
-        <v>3</v>
-      </c>
-      <c r="J12">
-        <v>56</v>
-      </c>
-      <c r="K12">
-        <v>4</v>
-      </c>
-      <c r="L12">
-        <f>J12/K12</f>
-        <v>14</v>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -653,40 +1471,21 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>559</v>
+        <v>62.45</v>
       </c>
       <c r="C13">
-        <v>41</v>
+        <v>682</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>13.634146341463415</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>86.9</v>
-      </c>
-      <c r="G13">
-        <v>11</v>
+        <f>B13/C13</f>
+        <v>9.1568914956011729E-2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
       </c>
       <c r="H13">
-        <f>F13/G13</f>
-        <v>7.9</v>
-      </c>
-      <c r="I13">
-        <v>3</v>
-      </c>
-      <c r="J13">
-        <v>421</v>
-      </c>
-      <c r="K13">
-        <v>6</v>
-      </c>
-      <c r="L13">
-        <f>J13/K13</f>
-        <v>70.166666666666671</v>
+        <f>AVERAGE(D13:D21)</f>
+        <v>5.8140639187918284</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -694,40 +1493,21 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>1.9</v>
+        <v>0.39</v>
       </c>
       <c r="C14">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>5.2777777777777778E-2</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>19.239999999999998</v>
-      </c>
-      <c r="G14">
-        <v>16</v>
+        <f t="shared" ref="D14:D21" si="0">B14/C14</f>
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
       </c>
       <c r="H14">
-        <f>F14/G14</f>
-        <v>1.2024999999999999</v>
-      </c>
-      <c r="I14">
-        <v>3</v>
-      </c>
-      <c r="J14">
-        <v>10.8</v>
-      </c>
-      <c r="K14">
-        <v>33</v>
-      </c>
-      <c r="L14">
-        <f>J14/K14</f>
-        <v>0.32727272727272727</v>
+        <f>AVERAGE(D22:D30)</f>
+        <v>3.97247177463273</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -735,40 +1515,21 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>424</v>
+        <v>559</v>
       </c>
       <c r="C15">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>6.3283582089552235</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>253</v>
-      </c>
-      <c r="G15">
-        <v>15</v>
+        <v>13.634146341463415</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
       </c>
       <c r="H15">
-        <f>F15/G15</f>
-        <v>16.866666666666667</v>
-      </c>
-      <c r="I15">
-        <v>3</v>
-      </c>
-      <c r="J15">
-        <v>10.79</v>
-      </c>
-      <c r="K15">
-        <v>25</v>
-      </c>
-      <c r="L15">
-        <f>J15/K15</f>
-        <v>0.43159999999999998</v>
+        <f>AVERAGE(D31:D39)</f>
+        <v>19.0495872695206</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -776,40 +1537,14 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>159</v>
+        <v>1.9</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>14.454545454545455</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="G16">
-        <v>8</v>
-      </c>
-      <c r="H16">
-        <f>F16/G16</f>
-        <v>1.0974999999999999</v>
-      </c>
-      <c r="I16">
-        <v>3</v>
-      </c>
-      <c r="J16">
-        <v>27.1</v>
-      </c>
-      <c r="K16">
-        <v>20</v>
-      </c>
-      <c r="L16">
-        <f>J16/K16</f>
-        <v>1.355</v>
+        <v>5.2777777777777778E-2</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -817,40 +1552,14 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>180</v>
+        <v>424</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>8.5714285714285712</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>56</v>
-      </c>
-      <c r="G17">
-        <v>8</v>
-      </c>
-      <c r="H17">
-        <f>F17/G17</f>
-        <v>7</v>
-      </c>
-      <c r="I17">
-        <v>3</v>
-      </c>
-      <c r="J17">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="K17">
-        <v>4</v>
-      </c>
-      <c r="L17">
-        <f>J17/K17</f>
-        <v>0.55000000000000004</v>
+        <v>6.3283582089552235</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -858,40 +1567,14 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="C18">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>8.875</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>51</v>
-      </c>
-      <c r="G18">
-        <v>33</v>
-      </c>
-      <c r="H18">
-        <f>F18/G18</f>
-        <v>1.5454545454545454</v>
-      </c>
-      <c r="I18">
-        <v>3</v>
-      </c>
-      <c r="J18">
-        <v>421</v>
-      </c>
-      <c r="K18">
-        <v>18</v>
-      </c>
-      <c r="L18">
-        <f>J18/K18</f>
-        <v>23.388888888888889</v>
+        <v>14.454545454545455</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -899,61 +1582,324 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>1.89</v>
+        <v>180</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
+        <v>8.5714285714285712</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>213</v>
+      </c>
+      <c r="C20">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>8.875</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1.89</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
         <v>0.26999999999999996</v>
       </c>
-      <c r="E19">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>2</v>
       </c>
-      <c r="F19">
+      <c r="B22">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C22">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22:D30" si="1">B22/C22</f>
+        <v>7.8571428571428564E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>0.88</v>
+      </c>
+      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>4.6315789473684213E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>86.9</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>19.239999999999998</v>
+      </c>
+      <c r="C25">
         <v>16</v>
       </c>
-      <c r="G19">
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>1.2024999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>253</v>
+      </c>
+      <c r="C26">
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>16.866666666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>1.0974999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>56</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>51</v>
+      </c>
+      <c r="C29">
+        <v>33</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>1.5454545454545454</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>16</v>
+      </c>
+      <c r="C30">
         <v>172</v>
       </c>
-      <c r="H19">
-        <f>F19/G19</f>
+      <c r="D30">
+        <f t="shared" si="1"/>
         <v>9.3023255813953487E-2</v>
       </c>
-      <c r="I19">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>3</v>
       </c>
-      <c r="J19">
+      <c r="B31">
+        <v>421</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31:D39" si="2">B31/C31</f>
+        <v>60.142857142857146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>56</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>421</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>70.166666666666671</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>10.8</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>0.32727272727272727</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>10.79</v>
+      </c>
+      <c r="C35">
+        <v>25</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>0.43159999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
         <v>27.1</v>
       </c>
-      <c r="K19">
+      <c r="C36">
+        <v>20</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>1.355</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>421</v>
+      </c>
+      <c r="C38">
+        <v>18</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>23.388888888888889</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>27.1</v>
+      </c>
+      <c r="C39">
         <v>25</v>
       </c>
-      <c r="L19">
-        <f>J19/K19</f>
+      <c r="D39">
+        <f t="shared" si="2"/>
         <v>1.0840000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D20" s="1">
-        <f>AVERAGE(D11:D19)</f>
-        <v>5.8140639187918284</v>
-      </c>
-      <c r="H20" s="1">
-        <f>AVERAGE(H11:H19)</f>
-        <v>3.97247177463273</v>
-      </c>
-      <c r="L20" s="1">
-        <f>AVERAGE(L11:L19)</f>
-        <v>19.0495872695206</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:C33">
-    <sortCondition ref="A11:A33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:C35">
+    <sortCondition ref="A13:A35"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>